--- a/Gestion Stock 2026/Gestion de Stock Tlathet Douairs/Fiche de Stock Tlathet Douairs 2026.xlsx
+++ b/Gestion Stock 2026/Gestion de Stock Tlathet Douairs/Fiche de Stock Tlathet Douairs 2026.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29628"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Suivie Pose Compteurs\Gestion Stock 2026\Gestion de Stock Tlathet Douairs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7707CF36-9506-40EC-B0A4-A02C5126A61A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0778BC4F-7847-49CA-B7A5-34A61C35434F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -997,28 +997,76 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="17" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="7" fillId="2" borderId="41" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="33" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="34" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="35" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="36" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="37" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="38" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="33" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="34" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="18" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="17" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="39" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="40" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="26" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="18" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="30" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="13" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="9" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="32" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="28" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="2" borderId="15" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="27" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="15" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="2" borderId="6" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="29" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1032,68 +1080,20 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="30" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="31" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="18" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="17" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="39" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="40" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="13" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="9" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="32" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="15" fontId="7" fillId="2" borderId="41" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="33" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="34" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="35" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="36" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="37" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="38" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="33" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="34" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="1" fontId="7" fillId="2" borderId="6" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="2" borderId="15" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="27" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="15" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -1538,8 +1538,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1549,90 +1549,90 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="18" x14ac:dyDescent="0.25">
-      <c r="A1" s="69" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="69"/>
-      <c r="C1" s="69"/>
-      <c r="D1" s="69"/>
+      <c r="A1" s="49" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="49"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
       <c r="E1" s="34"/>
       <c r="F1" s="35"/>
-      <c r="G1" s="70" t="s">
+      <c r="G1" s="50" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="70"/>
-      <c r="I1" s="70"/>
-      <c r="J1" s="70"/>
-      <c r="K1" s="70"/>
-      <c r="L1" s="70"/>
+      <c r="H1" s="50"/>
+      <c r="I1" s="50"/>
+      <c r="J1" s="50"/>
+      <c r="K1" s="50"/>
+      <c r="L1" s="50"/>
     </row>
     <row r="2" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="70" t="s">
+      <c r="A2" s="50" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="70"/>
-      <c r="C2" s="70"/>
-      <c r="D2" s="70"/>
+      <c r="B2" s="50"/>
+      <c r="C2" s="50"/>
+      <c r="D2" s="50"/>
       <c r="E2" s="34"/>
       <c r="F2" s="35"/>
-      <c r="G2" s="80" t="s">
+      <c r="G2" s="51" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="80"/>
-      <c r="I2" s="80"/>
-      <c r="J2" s="80"/>
-      <c r="K2" s="80"/>
-      <c r="L2" s="80"/>
+      <c r="H2" s="51"/>
+      <c r="I2" s="51"/>
+      <c r="J2" s="51"/>
+      <c r="K2" s="51"/>
+      <c r="L2" s="51"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="80" t="s">
+      <c r="A3" s="51" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="80"/>
-      <c r="C3" s="80"/>
-      <c r="D3" s="80"/>
+      <c r="B3" s="51"/>
+      <c r="C3" s="51"/>
+      <c r="D3" s="51"/>
       <c r="E3" s="34"/>
       <c r="F3" s="35"/>
-      <c r="G3" s="80" t="s">
+      <c r="G3" s="51" t="s">
         <v>28</v>
       </c>
-      <c r="H3" s="80"/>
-      <c r="I3" s="80"/>
-      <c r="J3" s="80"/>
-      <c r="K3" s="80"/>
-      <c r="L3" s="80"/>
+      <c r="H3" s="51"/>
+      <c r="I3" s="51"/>
+      <c r="J3" s="51"/>
+      <c r="K3" s="51"/>
+      <c r="L3" s="51"/>
     </row>
     <row r="4" spans="1:12" ht="18" x14ac:dyDescent="0.25">
-      <c r="A4" s="69" t="s">
+      <c r="A4" s="49" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="69"/>
-      <c r="C4" s="69"/>
-      <c r="D4" s="69"/>
-      <c r="E4" s="69"/>
-      <c r="F4" s="69"/>
-      <c r="G4" s="69"/>
-      <c r="H4" s="69"/>
-      <c r="I4" s="69"/>
-      <c r="J4" s="69"/>
-      <c r="K4" s="69"/>
-      <c r="L4" s="69"/>
+      <c r="B4" s="49"/>
+      <c r="C4" s="49"/>
+      <c r="D4" s="49"/>
+      <c r="E4" s="49"/>
+      <c r="F4" s="49"/>
+      <c r="G4" s="49"/>
+      <c r="H4" s="49"/>
+      <c r="I4" s="49"/>
+      <c r="J4" s="49"/>
+      <c r="K4" s="49"/>
+      <c r="L4" s="49"/>
     </row>
     <row r="5" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="70" t="s">
+      <c r="A5" s="50" t="s">
         <v>29</v>
       </c>
-      <c r="B5" s="70"/>
-      <c r="C5" s="70"/>
-      <c r="D5" s="70"/>
-      <c r="E5" s="70"/>
-      <c r="F5" s="70"/>
-      <c r="G5" s="70"/>
-      <c r="H5" s="70"/>
-      <c r="I5" s="70"/>
-      <c r="J5" s="70"/>
-      <c r="K5" s="70"/>
-      <c r="L5" s="70"/>
+      <c r="B5" s="50"/>
+      <c r="C5" s="50"/>
+      <c r="D5" s="50"/>
+      <c r="E5" s="50"/>
+      <c r="F5" s="50"/>
+      <c r="G5" s="50"/>
+      <c r="H5" s="50"/>
+      <c r="I5" s="50"/>
+      <c r="J5" s="50"/>
+      <c r="K5" s="50"/>
+      <c r="L5" s="50"/>
     </row>
     <row r="6" spans="1:12" ht="3.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
@@ -1644,36 +1644,36 @@
       <c r="E6" s="12"/>
       <c r="F6" s="11"/>
       <c r="G6" s="11"/>
-      <c r="H6" s="71"/>
-      <c r="I6" s="71"/>
+      <c r="H6" s="52"/>
+      <c r="I6" s="52"/>
       <c r="J6" s="12"/>
       <c r="K6" s="36"/>
       <c r="L6" s="3"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="72" t="s">
+      <c r="A7" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="74" t="s">
+      <c r="B7" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="75"/>
-      <c r="D7" s="75"/>
-      <c r="E7" s="75"/>
-      <c r="F7" s="76"/>
-      <c r="G7" s="77" t="s">
+      <c r="C7" s="56"/>
+      <c r="D7" s="56"/>
+      <c r="E7" s="56"/>
+      <c r="F7" s="57"/>
+      <c r="G7" s="58" t="s">
         <v>9</v>
       </c>
-      <c r="H7" s="75"/>
-      <c r="I7" s="75"/>
-      <c r="J7" s="75"/>
-      <c r="K7" s="76"/>
-      <c r="L7" s="78" t="s">
+      <c r="H7" s="56"/>
+      <c r="I7" s="56"/>
+      <c r="J7" s="56"/>
+      <c r="K7" s="57"/>
+      <c r="L7" s="59" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="73"/>
+      <c r="A8" s="54"/>
       <c r="B8" s="37" t="s">
         <v>11</v>
       </c>
@@ -1704,7 +1704,7 @@
       <c r="K8" s="39" t="s">
         <v>16</v>
       </c>
-      <c r="L8" s="79"/>
+      <c r="L8" s="60"/>
     </row>
     <row r="9" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="6">
@@ -2135,13 +2135,15 @@
       <c r="A26" s="8">
         <v>18</v>
       </c>
-      <c r="B26" s="21"/>
+      <c r="B26" s="21">
+        <v>16</v>
+      </c>
       <c r="C26" s="22"/>
       <c r="D26" s="22"/>
       <c r="E26" s="23"/>
       <c r="F26" s="17">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="G26" s="30"/>
       <c r="H26" s="22"/>
@@ -2153,7 +2155,7 @@
       </c>
       <c r="L26" s="7">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2485,7 +2487,7 @@
       <c r="A40" s="10"/>
       <c r="B40" s="48">
         <f>SUM(B9:B39)</f>
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="C40" s="48">
         <f t="shared" ref="C40:E40" si="3">SUM(C9:C39)</f>
@@ -2501,7 +2503,7 @@
       </c>
       <c r="F40" s="47">
         <f>SUM(F9:F39)</f>
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="G40" s="16">
         <f>SUM(G9:G39)</f>
@@ -2525,7 +2527,7 @@
       </c>
       <c r="L40" s="16">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2543,149 +2545,149 @@
       <c r="L41" s="13"/>
     </row>
     <row r="42" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="62"/>
-      <c r="B42" s="62"/>
-      <c r="C42" s="62"/>
-      <c r="D42" s="62"/>
-      <c r="E42" s="62"/>
-      <c r="F42" s="62"/>
-      <c r="G42" s="63" t="s">
+      <c r="A42" s="61"/>
+      <c r="B42" s="61"/>
+      <c r="C42" s="61"/>
+      <c r="D42" s="61"/>
+      <c r="E42" s="61"/>
+      <c r="F42" s="61"/>
+      <c r="G42" s="62" t="s">
         <v>17</v>
       </c>
-      <c r="H42" s="64"/>
-      <c r="I42" s="64" t="s">
+      <c r="H42" s="63"/>
+      <c r="I42" s="63" t="s">
         <v>18</v>
       </c>
-      <c r="J42" s="65"/>
+      <c r="J42" s="64"/>
       <c r="K42" s="11"/>
       <c r="L42" s="13"/>
     </row>
     <row r="43" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="14"/>
-      <c r="B43" s="49" t="s">
+      <c r="B43" s="65" t="s">
         <v>19</v>
       </c>
-      <c r="C43" s="50"/>
-      <c r="D43" s="50"/>
-      <c r="E43" s="50"/>
-      <c r="F43" s="50"/>
-      <c r="G43" s="60">
-        <v>0</v>
-      </c>
-      <c r="H43" s="66"/>
-      <c r="I43" s="67"/>
-      <c r="J43" s="68"/>
+      <c r="C43" s="66"/>
+      <c r="D43" s="66"/>
+      <c r="E43" s="66"/>
+      <c r="F43" s="66"/>
+      <c r="G43" s="67">
+        <v>0</v>
+      </c>
+      <c r="H43" s="68"/>
+      <c r="I43" s="69"/>
+      <c r="J43" s="70"/>
       <c r="K43" s="11"/>
       <c r="L43" s="13"/>
     </row>
     <row r="44" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="14"/>
-      <c r="B44" s="49" t="s">
+      <c r="B44" s="65" t="s">
         <v>20</v>
       </c>
-      <c r="C44" s="50"/>
-      <c r="D44" s="50"/>
-      <c r="E44" s="50"/>
-      <c r="F44" s="50"/>
-      <c r="G44" s="51">
-        <v>0</v>
-      </c>
-      <c r="H44" s="52"/>
-      <c r="I44" s="51"/>
-      <c r="J44" s="52"/>
+      <c r="C44" s="66"/>
+      <c r="D44" s="66"/>
+      <c r="E44" s="66"/>
+      <c r="F44" s="66"/>
+      <c r="G44" s="71">
+        <v>16</v>
+      </c>
+      <c r="H44" s="72"/>
+      <c r="I44" s="71"/>
+      <c r="J44" s="72"/>
       <c r="K44" s="11"/>
       <c r="L44" s="13"/>
     </row>
     <row r="45" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="14"/>
-      <c r="B45" s="57" t="s">
+      <c r="B45" s="73" t="s">
         <v>21</v>
       </c>
-      <c r="C45" s="57"/>
-      <c r="D45" s="57"/>
-      <c r="E45" s="57"/>
-      <c r="F45" s="49"/>
-      <c r="G45" s="58">
-        <v>0</v>
-      </c>
-      <c r="H45" s="59"/>
-      <c r="I45" s="60"/>
-      <c r="J45" s="61"/>
+      <c r="C45" s="73"/>
+      <c r="D45" s="73"/>
+      <c r="E45" s="73"/>
+      <c r="F45" s="65"/>
+      <c r="G45" s="74">
+        <v>0</v>
+      </c>
+      <c r="H45" s="75"/>
+      <c r="I45" s="67"/>
+      <c r="J45" s="76"/>
       <c r="K45" s="11"/>
       <c r="L45" s="13"/>
     </row>
     <row r="46" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="14"/>
-      <c r="B46" s="49" t="s">
+      <c r="B46" s="65" t="s">
         <v>22</v>
       </c>
-      <c r="C46" s="50"/>
-      <c r="D46" s="50"/>
-      <c r="E46" s="50"/>
-      <c r="F46" s="50"/>
-      <c r="G46" s="56">
+      <c r="C46" s="66"/>
+      <c r="D46" s="66"/>
+      <c r="E46" s="66"/>
+      <c r="F46" s="66"/>
+      <c r="G46" s="77">
         <f>L40+G45</f>
-        <v>0</v>
-      </c>
-      <c r="H46" s="52"/>
-      <c r="I46" s="51"/>
-      <c r="J46" s="52"/>
+        <v>16</v>
+      </c>
+      <c r="H46" s="72"/>
+      <c r="I46" s="71"/>
+      <c r="J46" s="72"/>
       <c r="K46" s="11"/>
       <c r="L46" s="13"/>
     </row>
     <row r="47" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="4"/>
-      <c r="B47" s="49" t="s">
+      <c r="B47" s="65" t="s">
         <v>23</v>
       </c>
-      <c r="C47" s="50"/>
-      <c r="D47" s="50"/>
-      <c r="E47" s="50"/>
-      <c r="F47" s="50"/>
-      <c r="G47" s="56">
+      <c r="C47" s="66"/>
+      <c r="D47" s="66"/>
+      <c r="E47" s="66"/>
+      <c r="F47" s="66"/>
+      <c r="G47" s="77">
         <f>G43+G44-G46</f>
         <v>0</v>
       </c>
-      <c r="H47" s="52"/>
-      <c r="I47" s="51"/>
-      <c r="J47" s="52"/>
+      <c r="H47" s="72"/>
+      <c r="I47" s="71"/>
+      <c r="J47" s="72"/>
       <c r="K47" s="11"/>
       <c r="L47" s="3"/>
     </row>
     <row r="48" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="4"/>
-      <c r="B48" s="49" t="s">
+      <c r="B48" s="65" t="s">
         <v>24</v>
       </c>
-      <c r="C48" s="50"/>
-      <c r="D48" s="50"/>
-      <c r="E48" s="50"/>
-      <c r="F48" s="50"/>
-      <c r="G48" s="51">
-        <v>0</v>
-      </c>
-      <c r="H48" s="52"/>
-      <c r="I48" s="51"/>
-      <c r="J48" s="52"/>
+      <c r="C48" s="66"/>
+      <c r="D48" s="66"/>
+      <c r="E48" s="66"/>
+      <c r="F48" s="66"/>
+      <c r="G48" s="71">
+        <v>0</v>
+      </c>
+      <c r="H48" s="72"/>
+      <c r="I48" s="71"/>
+      <c r="J48" s="72"/>
       <c r="K48" s="11"/>
       <c r="L48" s="3"/>
     </row>
     <row r="49" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="4"/>
-      <c r="B49" s="49" t="s">
+      <c r="B49" s="65" t="s">
         <v>25</v>
       </c>
-      <c r="C49" s="50"/>
-      <c r="D49" s="50"/>
-      <c r="E49" s="50"/>
-      <c r="F49" s="50"/>
-      <c r="G49" s="53">
+      <c r="C49" s="66"/>
+      <c r="D49" s="66"/>
+      <c r="E49" s="66"/>
+      <c r="F49" s="66"/>
+      <c r="G49" s="78">
         <f>G47-G48</f>
         <v>0</v>
       </c>
-      <c r="H49" s="54"/>
-      <c r="I49" s="55"/>
-      <c r="J49" s="54"/>
+      <c r="H49" s="79"/>
+      <c r="I49" s="80"/>
+      <c r="J49" s="79"/>
       <c r="K49" s="11"/>
       <c r="L49" s="3"/>
     </row>
@@ -2709,12 +2711,30 @@
     </row>
   </sheetData>
   <mergeCells count="37">
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="G1:L1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="G2:L2"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="G3:L3"/>
+    <mergeCell ref="B48:F48"/>
+    <mergeCell ref="G48:H48"/>
+    <mergeCell ref="I48:J48"/>
+    <mergeCell ref="B49:F49"/>
+    <mergeCell ref="G49:H49"/>
+    <mergeCell ref="I49:J49"/>
+    <mergeCell ref="B46:F46"/>
+    <mergeCell ref="G46:H46"/>
+    <mergeCell ref="I46:J46"/>
+    <mergeCell ref="B47:F47"/>
+    <mergeCell ref="G47:H47"/>
+    <mergeCell ref="I47:J47"/>
+    <mergeCell ref="B44:F44"/>
+    <mergeCell ref="G44:H44"/>
+    <mergeCell ref="I44:J44"/>
+    <mergeCell ref="B45:F45"/>
+    <mergeCell ref="G45:H45"/>
+    <mergeCell ref="I45:J45"/>
+    <mergeCell ref="A42:F42"/>
+    <mergeCell ref="G42:H42"/>
+    <mergeCell ref="I42:J42"/>
+    <mergeCell ref="B43:F43"/>
+    <mergeCell ref="G43:H43"/>
+    <mergeCell ref="I43:J43"/>
     <mergeCell ref="A4:L4"/>
     <mergeCell ref="A5:L5"/>
     <mergeCell ref="H6:I6"/>
@@ -2722,30 +2742,12 @@
     <mergeCell ref="B7:F7"/>
     <mergeCell ref="G7:K7"/>
     <mergeCell ref="L7:L8"/>
-    <mergeCell ref="A42:F42"/>
-    <mergeCell ref="G42:H42"/>
-    <mergeCell ref="I42:J42"/>
-    <mergeCell ref="B43:F43"/>
-    <mergeCell ref="G43:H43"/>
-    <mergeCell ref="I43:J43"/>
-    <mergeCell ref="B44:F44"/>
-    <mergeCell ref="G44:H44"/>
-    <mergeCell ref="I44:J44"/>
-    <mergeCell ref="B45:F45"/>
-    <mergeCell ref="G45:H45"/>
-    <mergeCell ref="I45:J45"/>
-    <mergeCell ref="B46:F46"/>
-    <mergeCell ref="G46:H46"/>
-    <mergeCell ref="I46:J46"/>
-    <mergeCell ref="B47:F47"/>
-    <mergeCell ref="G47:H47"/>
-    <mergeCell ref="I47:J47"/>
-    <mergeCell ref="B48:F48"/>
-    <mergeCell ref="G48:H48"/>
-    <mergeCell ref="I48:J48"/>
-    <mergeCell ref="B49:F49"/>
-    <mergeCell ref="G49:H49"/>
-    <mergeCell ref="I49:J49"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="G1:L1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="G2:L2"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="G3:L3"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0.31496062992125984" footer="0.31496062992125984"/>
